--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DNZ" sheetId="1" r:id="rId1"/>
+    <sheet name="Dowson Farms" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Wages</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Electricity</t>
   </si>
   <si>
+    <t>Stock</t>
+  </si>
+  <si>
     <t>Fertiliser</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>Rates</t>
   </si>
   <si>
+    <t>Labour</t>
+  </si>
+  <si>
     <t>2005-06</t>
   </si>
   <si>
@@ -163,13 +169,61 @@
   </si>
   <si>
     <t>Dairy operating profit / Ha</t>
+  </si>
+  <si>
+    <t>Dairy operating profit / Cow</t>
+  </si>
+  <si>
+    <t>Total Supplement</t>
+  </si>
+  <si>
+    <t>Less PKE</t>
+  </si>
+  <si>
+    <t>Grazing &amp; Support Block</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Milk Revenue</t>
+  </si>
+  <si>
+    <t>Milk Price</t>
+  </si>
+  <si>
+    <t>Supplement Price</t>
+  </si>
+  <si>
+    <t>Prod (kgMS/Ha)</t>
+  </si>
+  <si>
+    <t>Suppl. (kgDM/Ha)</t>
+  </si>
+  <si>
+    <t>Supplement Expense</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>per Cow</t>
+  </si>
+  <si>
+    <t>Livestock sales &amp; other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +283,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -258,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -346,6 +406,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,7 +566,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,6 +592,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -435,7 +671,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:f>DNZ!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -473,7 +709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$K$34</c:f>
+              <c:f>DNZ!$B$34:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -936,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="A47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,39 +1185,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1257,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12">
         <v>149</v>
@@ -1056,7 +1292,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12">
         <v>82</v>
@@ -1091,7 +1327,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12">
         <v>51</v>
@@ -1161,7 +1397,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4">
         <v>342</v>
@@ -1196,7 +1432,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12">
         <v>190</v>
@@ -1231,7 +1467,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12">
         <v>46</v>
@@ -1266,7 +1502,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="12">
         <v>368</v>
@@ -1301,7 +1537,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="12">
         <v>34</v>
@@ -1336,7 +1572,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="12">
         <v>32</v>
@@ -1371,7 +1607,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="12">
         <v>30</v>
@@ -1406,7 +1642,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="12">
         <v>144</v>
@@ -1441,7 +1677,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="12">
         <v>227</v>
@@ -1476,7 +1712,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="12">
         <v>41</v>
@@ -1511,7 +1747,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="12">
         <v>94</v>
@@ -1546,7 +1782,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="12">
         <v>33</v>
@@ -1581,7 +1817,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="12">
         <v>29</v>
@@ -1616,7 +1852,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="12">
         <v>65</v>
@@ -1651,7 +1887,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>2451</v>
@@ -1686,12 +1922,12 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="12">
         <v>218</v>
@@ -1726,7 +1962,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="12">
         <v>-436</v>
@@ -1759,12 +1995,12 @@
         <v>-406</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="12">
         <v>5</v>
@@ -1799,7 +2035,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="12">
         <v>-72</v>
@@ -1832,12 +2068,12 @@
         <v>-102</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="12">
         <v>-315</v>
@@ -1870,12 +2106,12 @@
         <v>-455</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>-601</v>
@@ -1910,7 +2146,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1925,7 +2161,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7">
         <v>4230</v>
@@ -1958,12 +2194,12 @@
         <v>6986</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8">
         <v>3270</v>
@@ -1996,17 +2232,17 @@
         <v>5449</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L33" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" s="15">
         <f>B32-B8-B24</f>
@@ -2067,7 +2303,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="18">
         <v>5866</v>
@@ -2084,7 +2320,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" s="15">
         <f>$B$36-B34</f>
@@ -2133,7 +2369,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="22">
         <v>960</v>
@@ -2168,6 +2404,45 @@
       <c r="L38" s="24">
         <f>AVERAGE(B38:K38)</f>
         <v>1946.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="22">
+        <v>354</v>
+      </c>
+      <c r="C39" s="22">
+        <v>335</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1004</v>
+      </c>
+      <c r="E39" s="22">
+        <v>265</v>
+      </c>
+      <c r="F39" s="22">
+        <v>697</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1013</v>
+      </c>
+      <c r="H39" s="22">
+        <v>939</v>
+      </c>
+      <c r="I39" s="22">
+        <v>650</v>
+      </c>
+      <c r="J39" s="23">
+        <v>1171</v>
+      </c>
+      <c r="K39" s="22">
+        <v>534</v>
+      </c>
+      <c r="L39" s="24">
+        <f>AVERAGE(B39:K39)</f>
+        <v>696.2</v>
       </c>
     </row>
   </sheetData>
@@ -2178,13 +2453,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1146</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1240</v>
+      </c>
+      <c r="E3" s="32">
+        <f>AVERAGE(C3:D3)</f>
+        <v>1193</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="31">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="30">
+        <f>$H$2 *C3</f>
+        <v>6876</v>
+      </c>
+      <c r="D4" s="31">
+        <f>$H$2 *D3</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="35">
+        <v>2900</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="28">
+        <f>C5*$H$3</f>
+        <v>-1450</v>
+      </c>
+      <c r="D6" s="29">
+        <f>D5*$H$3</f>
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1273</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35">
+        <v>632</v>
+      </c>
+      <c r="D8" s="33">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1242</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-1216</v>
+      </c>
+      <c r="D10" s="33">
+        <v>-1324</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="35">
+        <v>334</v>
+      </c>
+      <c r="D11" s="33">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1226</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="35">
+        <v>789</v>
+      </c>
+      <c r="D13" s="33">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-720</v>
+      </c>
+      <c r="D14" s="33">
+        <v>-910</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="42">
+        <f>-SUM(C7:C14)</f>
+        <v>-3560</v>
+      </c>
+      <c r="D15" s="43">
+        <f>-SUM(D7:D14)</f>
+        <v>-3512</v>
+      </c>
+      <c r="E15" s="44">
+        <f>AVERAGE(C15:D15)</f>
+        <v>-3536</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="42">
+        <f>C15+C6+C4</f>
+        <v>1866</v>
+      </c>
+      <c r="D16" s="42">
+        <f>D15+D6+D4</f>
+        <v>2528</v>
+      </c>
+      <c r="E16" s="44">
+        <f>AVERAGE(C16:D16)</f>
+        <v>2197</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="46">
+        <f>C16/3</f>
+        <v>622</v>
+      </c>
+      <c r="D17" s="46">
+        <f>D16/3</f>
+        <v>842.66666666666663</v>
+      </c>
+      <c r="E17" s="44">
+        <f>AVERAGE(C17:D17)</f>
+        <v>732.33333333333326</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="47">
+        <v>950</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>D21*C21</f>
+        <v>3800</v>
+      </c>
+      <c r="G21" s="47">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H21">
+        <f>G21*500</f>
+        <v>1160</v>
+      </c>
+      <c r="J21">
+        <f>E21-H21-$J$20</f>
+        <v>-896</v>
+      </c>
+      <c r="K21">
+        <f>J21/3</f>
+        <v>-298.66666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="47">
+        <v>1252</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E26" si="0">D22*C22</f>
+        <v>6260</v>
+      </c>
+      <c r="G22" s="47">
+        <v>2.57</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H26" si="1">G22*500</f>
+        <v>1285</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J26" si="2">E22-H22-$J$20</f>
+        <v>1439</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K26" si="3">J22/3</f>
+        <v>479.66666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="47">
+        <v>1277</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>7662</v>
+      </c>
+      <c r="G23" s="47">
+        <v>2.66</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>2796</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="47">
+        <v>1350</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9450</v>
+      </c>
+      <c r="G24" s="47">
+        <v>3.27</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1635</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>4279</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1426.3333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="47">
+        <v>1444</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>11552</v>
+      </c>
+      <c r="G25" s="47">
+        <v>4.05</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>5991</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="47">
+        <v>1193</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>7158</v>
+      </c>
+      <c r="G26" s="47">
+        <v>2.85</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1425</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>2197</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>732.33333333333337</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
